--- a/loss_log_plotting_data_train.xlsx
+++ b/loss_log_plotting_data_train.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\TesiUNINA\Colab Notebooks\tentativo5\pytorch-CycleGAN-and-pix2pix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\TesiUNINA\Colab Notebooks\tentativo4\pytorch-CycleGAN-and-pix2pix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E97C212-6C8C-4818-A5A4-2334C6FDF3FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA80C4ED-5CF0-4CB8-827F-27C85BE17A2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{EAD604FC-E07F-4CAB-A4EC-FC68F295B2D4}"/>
   </bookViews>
@@ -94,8 +94,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -123,9 +131,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -443,7 +453,7 @@
   <dimension ref="C1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4:N14"/>
+      <selection activeCell="N4" sqref="N4:N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -498,29 +508,30 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="F4" s="1">
-        <v>1.2310000000000001</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.29299999999999998</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1.254</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0.67</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="M4" s="1">
-        <v>2.5219999999999998</v>
-      </c>
-      <c r="N4" s="1">
-        <v>8.5999999999999993E-2</v>
+      <c r="F4" s="2">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.249</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.107</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="2">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="M4" s="2">
+        <v>3.9E-2</v>
+      </c>
+      <c r="N4" s="2">
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="5" spans="3:17" x14ac:dyDescent="0.35">
@@ -528,29 +539,30 @@
         <f>C4+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="1">
-        <v>0.86099999999999999</v>
-      </c>
-      <c r="G5" s="1">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="I5" s="1">
-        <v>3.1E-2</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0.17699999999999999</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0.192</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="N5" s="1">
-        <v>9.5000000000000001E-2</v>
+      <c r="F5" s="2">
+        <v>0.153</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.186</v>
+      </c>
+      <c r="I5" s="2">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="2">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.185</v>
+      </c>
+      <c r="M5" s="2">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="N5" s="2">
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="Q5" t="s">
         <v>9</v>
@@ -561,29 +573,30 @@
         <f t="shared" ref="C6:C53" si="0">C5+1</f>
         <v>3</v>
       </c>
-      <c r="F6" s="1">
-        <v>0.99299999999999999</v>
-      </c>
-      <c r="G6" s="1">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="I6" s="1">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0.104</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0.23699999999999999</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0.21299999999999999</v>
-      </c>
-      <c r="N6" s="1">
-        <v>8.7999999999999995E-2</v>
+      <c r="F6" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.186</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="2">
+        <v>0.438</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.372</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="N6" s="2">
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="Q6" t="s">
         <v>10</v>
@@ -594,29 +607,30 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F7" s="1">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="G7" s="1">
-        <v>2E-3</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0.21299999999999999</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0.24099999999999999</v>
-      </c>
-      <c r="M7" s="1">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0.124</v>
+      <c r="F7" s="2">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="I7" s="2">
+        <v>3.1E-2</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="2">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.121</v>
+      </c>
+      <c r="N7" s="2">
+        <v>4.7E-2</v>
       </c>
       <c r="Q7" t="s">
         <v>11</v>
@@ -627,29 +641,30 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F8" s="1">
-        <v>1.069</v>
-      </c>
-      <c r="G8" s="1">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="I8" s="1">
+      <c r="F8" s="2">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="I8" s="2">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="2">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0.217</v>
+      </c>
+      <c r="M8" s="2">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="N8" s="2">
         <v>0.03</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="M8" s="1">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="N8" s="1">
-        <v>8.7999999999999995E-2</v>
       </c>
       <c r="Q8" t="s">
         <v>12</v>
@@ -660,29 +675,30 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F9" s="1">
-        <v>0.70699999999999996</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0.21099999999999999</v>
-      </c>
-      <c r="I9" s="1">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0.46800000000000003</v>
-      </c>
-      <c r="L9" s="1">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="M9" s="1">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="N9" s="1">
-        <v>9.2999999999999999E-2</v>
+      <c r="F9" s="2">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.129</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="M9" s="2">
+        <v>3.9E-2</v>
+      </c>
+      <c r="N9" s="2">
+        <v>2.3E-2</v>
       </c>
       <c r="Q9" t="s">
         <v>13</v>
@@ -693,29 +709,30 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F10" s="1">
-        <v>1.21</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0.123</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.218</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0.66100000000000003</v>
-      </c>
-      <c r="L10" s="1">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="M10" s="1">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="N10" s="1">
-        <v>0.08</v>
+      <c r="F10" s="2">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="G10" s="2">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1.9E-2</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="2">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0.217</v>
+      </c>
+      <c r="M10" s="2">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="N10" s="2">
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="Q10" t="s">
         <v>14</v>
@@ -726,29 +743,30 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F11" s="1">
-        <v>0.94199999999999995</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0.29299999999999998</v>
-      </c>
-      <c r="I11" s="1">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0.51300000000000001</v>
-      </c>
-      <c r="L11" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M11" s="1">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="N11" s="1">
-        <v>8.4000000000000005E-2</v>
+      <c r="F11" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.121</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="I11" s="2">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="2">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="L11" s="2">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="N11" s="2">
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="Q11" t="s">
         <v>15</v>
@@ -759,29 +777,30 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F12" s="1">
-        <v>0.80800000000000005</v>
-      </c>
-      <c r="G12" s="1">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0.185</v>
-      </c>
-      <c r="I12" s="1">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0.441</v>
-      </c>
-      <c r="L12" s="1">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="M12" s="1">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="N12" s="1">
-        <v>9.1999999999999998E-2</v>
+      <c r="F12" s="2">
+        <v>0.315</v>
+      </c>
+      <c r="G12" s="2">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="I12" s="2">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="2">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="N12" s="2">
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="13" spans="3:17" x14ac:dyDescent="0.35">
@@ -789,29 +808,30 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F13" s="1">
-        <v>0.27</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0.26400000000000001</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0.26</v>
-      </c>
-      <c r="I13" s="1">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="L13" s="1">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="M13" s="1">
-        <v>0.109</v>
-      </c>
-      <c r="N13" s="1">
-        <v>7.4999999999999997E-2</v>
+      <c r="F13" s="2">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="G13" s="2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.214</v>
+      </c>
+      <c r="I13" s="2">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="2">
+        <v>0.107</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="N13" s="2">
+        <v>3.7999999999999999E-2</v>
       </c>
     </row>
     <row r="14" spans="3:17" x14ac:dyDescent="0.35">
@@ -819,490 +839,1005 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
+      <c r="F14" s="2">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="G14" s="2">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.115</v>
+      </c>
+      <c r="I14" s="2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="2">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="M14" s="2">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="N14" s="2">
+        <v>1.7999999999999999E-2</v>
+      </c>
     </row>
     <row r="15" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C15">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
+      <c r="F15" s="2">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="G15" s="2">
+        <v>6.3E-2</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="2">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0.186</v>
+      </c>
+      <c r="M15" s="2">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="N15" s="2">
+        <v>5.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="16" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C16">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
+      <c r="F16" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="G16" s="2">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="I16" s="2">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="2">
+        <v>0.318</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="N16" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C17">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
+      <c r="F17" s="2">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="G17" s="2">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="H17" s="2">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1.4E-2</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="2">
+        <v>0.248</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="M17" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="N17" s="2">
+        <v>1.2E-2</v>
+      </c>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C18">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
+      <c r="F18" s="2">
+        <v>1.1919999999999999</v>
+      </c>
+      <c r="G18" s="2">
+        <v>6.3E-2</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1.4E-2</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="2">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="M18" s="2">
+        <v>5.5E-2</v>
+      </c>
+      <c r="N18" s="2">
+        <v>1.7999999999999999E-2</v>
+      </c>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C19">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
+      <c r="F19" s="2">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="G19" s="2">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1.4E-2</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="2">
+        <v>0.377</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="M19" s="2">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="N19" s="2">
+        <v>2.7E-2</v>
+      </c>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C20">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
+      <c r="F20" s="2">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="G20" s="2">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.223</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1.2E-2</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="2">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0.247</v>
+      </c>
+      <c r="M20" s="2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="N20" s="2">
+        <v>2.5999999999999999E-2</v>
+      </c>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C21">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
+      <c r="F21" s="2">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="G21" s="2">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.129</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="2">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0.122</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C22">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
+      <c r="F22" s="2">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="G22" s="2">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="2">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="M22" s="2">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="N22" s="2">
+        <v>1.7000000000000001E-2</v>
+      </c>
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C23">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
+      <c r="F23" s="2">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="G23" s="2">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="H23" s="2">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I23" s="2">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="2">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C24">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
+      <c r="F24" s="2">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="G24" s="2">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="2">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="M24" s="2">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="N24" s="2">
+        <v>1.4E-2</v>
+      </c>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C25">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
+      <c r="F25" s="2">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="G25" s="2">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="I25" s="2">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="K25" s="2">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="N25" s="2">
+        <v>8.9999999999999993E-3</v>
+      </c>
     </row>
     <row r="26" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C26">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
+      <c r="F26" s="2">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0.113</v>
+      </c>
+      <c r="I26" s="2">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="J26" s="3"/>
+      <c r="K26" s="2">
+        <v>0.255</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0.223</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="N26" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C27">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
+      <c r="F27" s="2">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="G27" s="2">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0.246</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" s="2">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="N27" s="2">
+        <v>3.5000000000000003E-2</v>
+      </c>
     </row>
     <row r="28" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C28">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
+      <c r="F28" s="2">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="G28" s="2">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="H28" s="2">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="M28" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N28" s="2">
+        <v>1.7000000000000001E-2</v>
+      </c>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C29">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
+      <c r="F29" s="2">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="H29" s="2">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="K29" s="2">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="M29" s="2">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="N29" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C30">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
+      <c r="F30" s="2">
+        <v>1.21</v>
+      </c>
+      <c r="G30" s="2">
+        <v>4.7E-2</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1.9E-2</v>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="2">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="M30" s="2">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="N30" s="2">
+        <v>1.9E-2</v>
+      </c>
     </row>
     <row r="31" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C31">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
+      <c r="F31" s="2">
+        <v>1.0109999999999999</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="I31" s="2">
+        <v>2.7E-2</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="2">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="N31" s="2">
+        <v>2.9000000000000001E-2</v>
+      </c>
     </row>
     <row r="32" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C32">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
+      <c r="F32" s="2">
+        <v>1.026</v>
+      </c>
+      <c r="G32" s="2">
+        <v>2.7E-2</v>
+      </c>
+      <c r="H32" s="2">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1.6E-2</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0.224</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="N32" s="2">
+        <v>1.4E-2</v>
+      </c>
     </row>
     <row r="33" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C33">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
+      <c r="F33" s="2">
+        <v>1.264</v>
+      </c>
+      <c r="G33" s="2">
+        <v>2.7E-2</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="I33" s="2">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="J33" s="3"/>
+      <c r="K33" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0.114</v>
+      </c>
+      <c r="N33" s="2">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="34" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C34">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
+      <c r="F34" s="2">
+        <v>1.0760000000000001</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0.187</v>
+      </c>
+      <c r="H34" s="2">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J34" s="3"/>
+      <c r="K34" s="2">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="M34" s="2">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="N34" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
     </row>
     <row r="35" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C35">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
+      <c r="F35" s="2">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1.9E-2</v>
+      </c>
+      <c r="H35" s="2">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="I35" s="2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" s="2">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="N35" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
     </row>
     <row r="36" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C36">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
+      <c r="F36" s="2">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="G36" s="2">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="I36" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J36" s="3"/>
+      <c r="K36" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="M36" s="2">
+        <v>0.124</v>
+      </c>
+      <c r="N36" s="2">
+        <v>1.7999999999999999E-2</v>
+      </c>
     </row>
     <row r="37" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C37">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
+      <c r="F37" s="2">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="G37" s="2">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H37" s="2">
+        <v>9.4E-2</v>
+      </c>
+      <c r="I37" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J37" s="3"/>
+      <c r="K37" s="2">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0.222</v>
+      </c>
+      <c r="M37" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="N37" s="2">
+        <v>1.7000000000000001E-2</v>
+      </c>
     </row>
     <row r="38" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C38">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
+      <c r="F38" s="2">
+        <v>1.147</v>
+      </c>
+      <c r="G38" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H38" s="2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I38" s="2">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="J38" s="3"/>
+      <c r="K38" s="2">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="L38" s="2">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="M38" s="2">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="N38" s="2">
+        <v>1.2E-2</v>
+      </c>
     </row>
     <row r="39" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C39">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
+      <c r="F39" s="2">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="G39" s="2">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="I39" s="2">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="J39" s="3"/>
+      <c r="K39" s="2">
+        <v>0.317</v>
+      </c>
+      <c r="L39" s="2">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="M39" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="N39" s="2">
+        <v>2.5999999999999999E-2</v>
+      </c>
     </row>
     <row r="40" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C40">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
+      <c r="F40" s="2">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="G40" s="2">
+        <v>1.9E-2</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0.183</v>
+      </c>
+      <c r="I40" s="2">
+        <v>2.4E-2</v>
+      </c>
+      <c r="J40" s="3"/>
+      <c r="K40" s="2">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="L40" s="2">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="M40" s="2">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="N40" s="2">
+        <v>2.7E-2</v>
+      </c>
     </row>
     <row r="41" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C41">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
+      <c r="F41" s="2">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="G41" s="2">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="J41" s="3"/>
+      <c r="K41" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="L41" s="2">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="M41" s="2">
+        <v>0.158</v>
+      </c>
+      <c r="N41" s="2">
+        <v>1.6E-2</v>
+      </c>
     </row>
     <row r="42" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C42">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
+      <c r="F42" s="2">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="G42" s="2">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0.108</v>
+      </c>
+      <c r="I42" s="2">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="J42" s="3"/>
+      <c r="K42" s="2">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="L42" s="2">
+        <v>0.215</v>
+      </c>
+      <c r="M42" s="2">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="N42" s="2">
+        <v>1.6E-2</v>
+      </c>
     </row>
     <row r="43" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C43">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
+      <c r="F43" s="2">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="G43" s="2">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="J43" s="3"/>
+      <c r="K43" s="2">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="L43" s="2">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="M43" s="2">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="N43" s="2">
+        <v>3.5999999999999997E-2</v>
+      </c>
     </row>
     <row r="44" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C44">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
     </row>
     <row r="45" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C45">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
     </row>
     <row r="46" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C46">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
     </row>
     <row r="47" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C47">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
     </row>
     <row r="48" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C48">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
     </row>
     <row r="49" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C49">
